--- a/spliced/falling/2023-03-25_18-00-41/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-41/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0387899428606033</v>
+        <v>0.0204639863222837</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2247984111309051</v>
+        <v>-0.0009162978967650999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1269072592258453</v>
+        <v>0.007177666760981</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1467603743076324</v>
+        <v>0.0155770638957619</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3396410644054413</v>
+        <v>-0.046578474342823</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0708603709936142</v>
+        <v>0.0195476878434419</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0829249545931816</v>
+        <v>0.0387899428606033</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4129449129104614</v>
+        <v>-0.2247984111309051</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1215621829032898</v>
+        <v>0.1269072592258453</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2186897546052932</v>
+        <v>-0.1467603743076324</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2243402600288391</v>
+        <v>-0.3396410644054413</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5036584138870239</v>
+        <v>0.0708603709936142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2626720666885376</v>
+        <v>0.0829249545931816</v>
       </c>
       <c r="B6" t="n">
-        <v>0.047036625444889</v>
+        <v>-0.4129449129104614</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1678352206945419</v>
+        <v>0.1215621829032898</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.2110539376735687</v>
+        <v>0.2186897546052932</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9388998746871948</v>
+        <v>-0.2243402600288391</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.7550294399261475</v>
+        <v>0.5036584138870239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.06963863968849179</v>
+        <v>0.2626720666885376</v>
       </c>
       <c r="B8" t="n">
-        <v>1.037860035896301</v>
+        <v>0.047036625444889</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.770426511764526</v>
+        <v>0.1678352206945419</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.3165809214115143</v>
+        <v>-0.2110539376735687</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.475086808204651</v>
+        <v>0.9388998746871948</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.813048005104065</v>
+        <v>-0.7550294399261475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.540435791015625</v>
+        <v>0.06963863968849179</v>
       </c>
       <c r="B10" t="n">
-        <v>-5.590180397033691</v>
+        <v>1.037860035896301</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3164281845092773</v>
+        <v>-2.770426511764526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2667953968048095</v>
+        <v>-0.3165809214115143</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7530441284179688</v>
+        <v>-1.475086808204651</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5949827432632446</v>
+        <v>-1.813048005104065</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5946773290634155</v>
+        <v>-2.540435791015625</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5623014569282532</v>
+        <v>-5.590180397033691</v>
       </c>
       <c r="C12" t="n">
-        <v>0.265573650598526</v>
+        <v>0.3164281845092773</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.2397646158933639</v>
+        <v>0.2667953968048095</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2414444833993911</v>
+        <v>0.7530441284179688</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.8886561989784241</v>
+        <v>0.5949827432632446</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.3083342313766479</v>
+        <v>0.5946773290634155</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1081231459975242</v>
+        <v>0.5623014569282532</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2041817009449005</v>
+        <v>0.265573650598526</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0649044290184974</v>
+        <v>-0.2397646158933639</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2634356319904327</v>
+        <v>-0.2414444833993911</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0945313945412635</v>
+        <v>-0.8886561989784241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0543670058250427</v>
+        <v>0.3083342313766479</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1363756656646728</v>
+        <v>0.1081231459975242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0697913542389869</v>
+        <v>0.2041817009449005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.08918632566928859</v>
+        <v>0.0649044290184974</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.3081815242767334</v>
+        <v>0.2634356319904327</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1731802970170974</v>
+        <v>0.0945313945412635</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0502436682581901</v>
+        <v>-0.0543670058250427</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1233947798609733</v>
+        <v>0.1363756656646728</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0299323964864015</v>
+        <v>0.0697913542389869</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0731511116027832</v>
+        <v>-0.08918632566928859</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2703078687191009</v>
+        <v>-0.3081815242767334</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0377209298312664</v>
+        <v>-0.1731802970170974</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0568104684352874</v>
+        <v>-0.0502436682581901</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1012509167194366</v>
+        <v>-0.1233947798609733</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0526871271431446</v>
+        <v>-0.0299323964864015</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0032070425804704</v>
+        <v>0.0731511116027832</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0478002056479454</v>
+        <v>0.2703078687191009</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.024892758578062</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0117591563612222</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0113010071218013</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0294742472469806</v>
+        <v>0.0377209298312664</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-00-41/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-41/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0204639863222837</v>
+        <v>-0.0074830991216003</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0009162978967650999</v>
+        <v>0.0424551330506801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007177666760981</v>
+        <v>0.0247400421649217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0155770638957619</v>
+        <v>0.0018325957935303</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.046578474342823</v>
+        <v>0.0197004042565822</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0195476878434419</v>
+        <v>0.0239764600992202</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0387899428606033</v>
+        <v>0.0056505035609006</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2247984111309051</v>
+        <v>-0.0122173046693205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1269072592258453</v>
+        <v>0.009315694682300001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.1467603743076324</v>
+        <v>0.0204639863222837</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3396410644054413</v>
+        <v>-0.0009162978967650999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0708603709936142</v>
+        <v>0.007177666760981</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0829249545931816</v>
+        <v>0.0155770638957619</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4129449129104614</v>
+        <v>-0.046578474342823</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1215621829032898</v>
+        <v>0.0195476878434419</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2186897546052932</v>
+        <v>0.0387899428606033</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2243402600288391</v>
+        <v>-0.2247984111309051</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5036584138870239</v>
+        <v>0.1269072592258453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2626720666885376</v>
+        <v>-0.1467603743076324</v>
       </c>
       <c r="B8" t="n">
-        <v>0.047036625444889</v>
+        <v>-0.3396410644054413</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1678352206945419</v>
+        <v>0.0708603709936142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.2110539376735687</v>
+        <v>0.0829249545931816</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9388998746871948</v>
+        <v>-0.4129449129104614</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7550294399261475</v>
+        <v>0.1215621829032898</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.06963863968849179</v>
+        <v>0.2186897546052932</v>
       </c>
       <c r="B10" t="n">
-        <v>1.037860035896301</v>
+        <v>-0.2243402600288391</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.770426511764526</v>
+        <v>0.5036584138870239</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.3165809214115143</v>
+        <v>0.2626720666885376</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.475086808204651</v>
+        <v>0.047036625444889</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.813048005104065</v>
+        <v>0.1678352206945419</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.540435791015625</v>
+        <v>-0.2110539376735687</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.590180397033691</v>
+        <v>0.9388998746871948</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3164281845092773</v>
+        <v>-0.7550294399261475</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2667953968048095</v>
+        <v>0.06963863968849179</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7530441284179688</v>
+        <v>1.037860035896301</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5949827432632446</v>
+        <v>-2.770426511764526</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5946773290634155</v>
+        <v>-0.3165809214115143</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5623014569282532</v>
+        <v>-1.475086808204651</v>
       </c>
       <c r="C14" t="n">
-        <v>0.265573650598526</v>
+        <v>-1.813048005104065</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.2397646158933639</v>
+        <v>-2.540435791015625</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2414444833993911</v>
+        <v>-5.590180397033691</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.8886561989784241</v>
+        <v>0.3164281845092773</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3083342313766479</v>
+        <v>0.2667953968048095</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1081231459975242</v>
+        <v>0.7530441284179688</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2041817009449005</v>
+        <v>0.5949827432632446</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0649044290184974</v>
+        <v>0.5946773290634155</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2634356319904327</v>
+        <v>0.5623014569282532</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0945313945412635</v>
+        <v>0.265573650598526</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0543670058250427</v>
+        <v>-0.2397646158933639</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1363756656646728</v>
+        <v>-0.2414444833993911</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0697913542389869</v>
+        <v>-0.8886561989784241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.08918632566928859</v>
+        <v>0.3083342313766479</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.3081815242767334</v>
+        <v>0.1081231459975242</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1731802970170974</v>
+        <v>0.2041817009449005</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0502436682581901</v>
+        <v>0.0649044290184974</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.1233947798609733</v>
+        <v>0.2634356319904327</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0299323964864015</v>
+        <v>0.0945313945412635</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.0543670058250427</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1363756656646728</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0697913542389869</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.08918632566928859</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.3081815242767334</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.1731802970170974</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.0502436682581901</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.1233947798609733</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.0299323964864015</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>0.0731511116027832</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>0.2703078687191009</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>0.0377209298312664</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.0568104684352874</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1012509167194366</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.0526871271431446</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.0032070425804704</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.0478002056479454</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.024892758578062</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.0117591563612222</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0113010071218013</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0294742472469806</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0128281703218817</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.0500909499824047</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.0126754539087414</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.0056505035609006</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.0193949714303016</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0198531206697225</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.0088575463742017</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0649044290184974</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0067195175215601</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.0021380283869802</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01328631862998</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0001527163112768</v>
       </c>
     </row>
   </sheetData>
